--- a/6424_17Jan.xlsx
+++ b/6424_17Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satbir.malli\Desktop\BOT-for-form-filling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B1600-F112-4E38-A2E0-35A1869199DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC38C45-C30D-4AAE-84F8-B5BF3541F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64E52884-9119-458A-8400-7B84CA45AB2A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="326">
   <si>
     <t>https://hi-techinsights.com/modernizing-compliance-in-an-ai-driven-world/</t>
   </si>
@@ -77,15 +77,9 @@
     <t>California</t>
   </si>
   <si>
-    <t>Brian</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Neenah</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -179,12 +167,6 @@
     <t>Indiana</t>
   </si>
   <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Columbus</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>Virginia</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>Denver</t>
   </si>
   <si>
-    <t>Brad</t>
-  </si>
-  <si>
     <t>Dallas</t>
   </si>
   <si>
@@ -233,36 +209,15 @@
     <t>Houston</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t>Mike</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Oklahoma City</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
     <t>Minneapolis</t>
   </si>
   <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
     <t>Lexington</t>
   </si>
   <si>
@@ -278,18 +233,9 @@
     <t>Joe</t>
   </si>
   <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
     <t>Jacksonville</t>
   </si>
   <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>Vice President, Chief Information Officer</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
@@ -299,27 +245,15 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
     <t>Kansas City</t>
   </si>
   <si>
-    <t>Bakersfield</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
-    <t>Dennis</t>
-  </si>
-  <si>
     <t>Jackson</t>
   </si>
   <si>
@@ -353,9 +287,6 @@
     <t>Henry</t>
   </si>
   <si>
-    <t>Charles</t>
-  </si>
-  <si>
     <t>Las Vegas</t>
   </si>
   <si>
@@ -365,27 +296,9 @@
     <t>Marc</t>
   </si>
   <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
     <t>SVP, Chief Information Security Officer</t>
   </si>
   <si>
-    <t>CISO</t>
-  </si>
-  <si>
-    <t>SVP, Chief Information Officer</t>
-  </si>
-  <si>
     <t>Eden Prairie</t>
   </si>
   <si>
@@ -398,9 +311,6 @@
     <t>Director of Cyber Security</t>
   </si>
   <si>
-    <t>Wilmington</t>
-  </si>
-  <si>
     <t>Burns</t>
   </si>
   <si>
@@ -410,9 +320,6 @@
     <t>Wichita</t>
   </si>
   <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
@@ -422,324 +329,18 @@
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>Lumen Technologies</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Martin G.</t>
-  </si>
-  <si>
-    <t>Nystrom</t>
-  </si>
-  <si>
-    <t>martin.nystrom@lumen.com</t>
-  </si>
-  <si>
-    <t>Vice President, Cybersecurity and AI</t>
-  </si>
-  <si>
-    <t>Aulson</t>
-  </si>
-  <si>
-    <t>keitha@malibuboats.com</t>
-  </si>
-  <si>
-    <t>Malibu Boats</t>
-  </si>
-  <si>
-    <t>Loudon</t>
-  </si>
-  <si>
-    <t>Balster</t>
-  </si>
-  <si>
-    <t>kevin.balster@matholdingsinc.com</t>
-  </si>
-  <si>
-    <t>8478219630</t>
-  </si>
-  <si>
-    <t>MAT Holdings, Inc.</t>
-  </si>
-  <si>
-    <t>Long Grove</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>cowen@mdanderson.org</t>
-  </si>
-  <si>
-    <t>MD Anderson Cancer Center</t>
-  </si>
-  <si>
-    <t>thomas.brown@ridemetro.org</t>
-  </si>
-  <si>
-    <t>Metropolitan Transit Authority of Harris County</t>
-  </si>
-  <si>
-    <t>Vail</t>
-  </si>
-  <si>
-    <t>rvail@moog.com</t>
-  </si>
-  <si>
-    <t>Moog Inc</t>
-  </si>
-  <si>
-    <t>Elma</t>
-  </si>
-  <si>
-    <t>Ehtisham</t>
-  </si>
-  <si>
-    <t>Khan</t>
-  </si>
-  <si>
-    <t>ehtisham.k@nationalgeneral.com</t>
-  </si>
-  <si>
-    <t>National General</t>
-  </si>
-  <si>
-    <t>Mcdermitt</t>
-  </si>
-  <si>
-    <t>dennis.mcdermitt@nationalgrid.com</t>
-  </si>
-  <si>
-    <t>National Grid</t>
-  </si>
-  <si>
-    <t>Vice President &amp; U.S. Chief Information Security Officer</t>
-  </si>
-  <si>
-    <t>Waltham</t>
-  </si>
-  <si>
-    <t>Vance</t>
-  </si>
-  <si>
-    <t>michael.vance@navient.com</t>
-  </si>
-  <si>
-    <t>Navient</t>
-  </si>
-  <si>
-    <t>Sr. Director &amp; Chief Information Security Officer</t>
-  </si>
-  <si>
-    <t>Boissonnault</t>
-  </si>
-  <si>
-    <t>aboissonnault@navisite.com</t>
-  </si>
-  <si>
-    <t>Navisite</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>thor.wallace@netscout.com</t>
-  </si>
-  <si>
-    <t>NETSCOUT</t>
-  </si>
-  <si>
-    <t>Westford</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Huskey</t>
-  </si>
-  <si>
-    <t>nathan.huskey@ohio.gov</t>
-  </si>
-  <si>
-    <t>Ohio Department of Health</t>
-  </si>
-  <si>
-    <t>Heath</t>
-  </si>
-  <si>
-    <t>Hodges</t>
-  </si>
-  <si>
-    <t>hhodges@okstate.edu</t>
-  </si>
-  <si>
-    <t>Oklahoma State University</t>
-  </si>
-  <si>
-    <t>CIO for the A&amp;Ms</t>
-  </si>
-  <si>
-    <t>Kilroy</t>
-  </si>
-  <si>
-    <t>paul.kilroy@oldnational.com</t>
-  </si>
-  <si>
-    <t>Old National Bank</t>
-  </si>
-  <si>
     <t>Evansville</t>
   </si>
   <si>
     <t>Siders</t>
   </si>
   <si>
-    <t>jsiders@palantir.com</t>
-  </si>
-  <si>
-    <t>Palantir Technologies</t>
-  </si>
-  <si>
-    <t>brad.smith@paycom.com</t>
-  </si>
-  <si>
-    <t>Paycom</t>
-  </si>
-  <si>
-    <t>oklahoma</t>
-  </si>
-  <si>
-    <t>Cheryl</t>
-  </si>
-  <si>
-    <t>Vanpatten</t>
-  </si>
-  <si>
-    <t>cheryl_vanpatten@pediatrix.com</t>
-  </si>
-  <si>
-    <t>Pediatrix Medical Group</t>
-  </si>
-  <si>
-    <t>Redler</t>
-  </si>
-  <si>
-    <t>bredler@penguinrandomhouse.com</t>
-  </si>
-  <si>
-    <t>Penguin Random House</t>
-  </si>
-  <si>
-    <t>Westminster</t>
-  </si>
-  <si>
-    <t>Lanzalone</t>
-  </si>
-  <si>
-    <t>charles_lanzalone@pepboys.com</t>
-  </si>
-  <si>
-    <t>Pep Boys</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Mcmillan</t>
-  </si>
-  <si>
-    <t>kyle.mcmillan@plexus.com</t>
-  </si>
-  <si>
-    <t>Plexus Corp.</t>
-  </si>
-  <si>
-    <t>Haden</t>
-  </si>
-  <si>
-    <t>Mcwhorter</t>
-  </si>
-  <si>
-    <t>haden.mcwhorter@premisehealth.com</t>
-  </si>
-  <si>
-    <t>Premise Health</t>
-  </si>
-  <si>
-    <t>Alameda</t>
-  </si>
-  <si>
-    <t>Scroggs</t>
-  </si>
-  <si>
-    <t>gscroggs@primerica.com</t>
-  </si>
-  <si>
-    <t>Primerica</t>
-  </si>
-  <si>
-    <t>Lael</t>
-  </si>
-  <si>
     <t>Ellis</t>
   </si>
   <si>
-    <t>lellis@primerica.com</t>
-  </si>
-  <si>
-    <t>Amundson</t>
-  </si>
-  <si>
-    <t>dan.amundson@pg.com</t>
-  </si>
-  <si>
-    <t>Procter &amp; Gamble</t>
-  </si>
-  <si>
-    <t>Senior Director - Global PS Cyber Security</t>
-  </si>
-  <si>
     <t>Cincinnati</t>
   </si>
   <si>
-    <t>Catherine</t>
-  </si>
-  <si>
-    <t>Mccully</t>
-  </si>
-  <si>
-    <t>mccully.c@pg.com</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>justin.allen@protective.com</t>
-  </si>
-  <si>
-    <t>Protective Life</t>
-  </si>
-  <si>
-    <t>Patty</t>
-  </si>
-  <si>
-    <t>patty.ryan@quidelortho.com</t>
-  </si>
-  <si>
-    <t>QuidelOrtho</t>
-  </si>
-  <si>
-    <t>Sr. Director, Chief Information Security Officer</t>
-  </si>
-  <si>
     <t>Scarborough</t>
   </si>
   <si>
@@ -1410,6 +1011,12 @@
   </si>
   <si>
     <t>Miami</t>
+  </si>
+  <si>
+    <t>country-code</t>
+  </si>
+  <si>
+    <t>dropdown_2</t>
   </si>
 </sst>
 </file>
@@ -1531,17 +1138,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1912,80 +1509,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B71A43-09FF-40CB-BB48-4BC357825830}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="L1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>6424</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3">
-        <v>3183889000</v>
+        <v>7133480000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
@@ -1993,75 +1595,81 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6424</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3032996000</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5152452500</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8654585478</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
@@ -2069,37 +1677,40 @@
       <c r="L4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6424</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F5" s="3">
-        <v>7137922121</v>
+        <v>3055003726</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>6</v>
@@ -2107,113 +1718,122 @@
       <c r="L5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6424</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="F6" s="3">
-        <v>7136354000</v>
+        <v>6094900649</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6424</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>323</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="4">
-        <v>7166522000</v>
+        <v>122</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2067273200</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6424</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="F8" s="3">
-        <v>3364352000</v>
+        <v>2622602000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>6</v>
@@ -2221,75 +1841,81 @@
       <c r="L8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6424</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>451</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F9" s="3">
-        <v>7812904716</v>
+        <v>5136058000</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6424</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3">
-        <v>3022838000</v>
+        <v>3035301925</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>6</v>
@@ -2297,84 +1923,93 @@
       <c r="L10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6424</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>455</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3">
-        <v>3122121317</v>
+        <v>6305703050</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6424</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>454</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F12" s="3">
-        <v>9786144000</v>
+        <v>9317661425</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6424</v>
       </c>
@@ -2382,66 +2017,69 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F13" s="3">
-        <v>6144663543</v>
+        <v>2064393830</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>6424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="F14" s="3">
-        <v>4059474421</v>
+        <v>6175361243</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>6</v>
@@ -2449,151 +2087,163 @@
       <c r="L14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>6424</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8124641425</v>
+        <v>156</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9167338800</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4252568000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7203583679</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="M16" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6123046073</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4057226900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6424</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="F18" s="3">
-        <v>6152772300</v>
+        <v>6123046073</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>6</v>
@@ -2601,75 +2251,81 @@
       <c r="L18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>6424</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>451</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F19" s="3">
-        <v>4108481900</v>
+        <v>6109485100</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>6424</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F20" s="3">
-        <v>2154309000</v>
+        <v>7635401200</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>6</v>
@@ -2677,37 +2333,40 @@
       <c r="L20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6424</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F21" s="3">
-        <v>9209696000</v>
+        <v>8584854000</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>6</v>
@@ -2715,75 +2374,81 @@
       <c r="L21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>6424</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="F22" s="3">
-        <v>5102178848</v>
+        <v>4014212800</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5052770111</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6617481682</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>6</v>
@@ -2791,75 +2456,81 @@
       <c r="L23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>6424</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F24" s="3">
-        <v>6617481682</v>
+        <v>5052770111</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>6424</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="F25" s="3">
-        <v>5139831100</v>
+        <v>7134705300</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>6</v>
@@ -2867,37 +2538,40 @@
       <c r="L25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6424</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F26" s="3">
-        <v>5139831100</v>
+        <v>2126922000</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>6</v>
@@ -2905,31 +2579,34 @@
       <c r="L26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>6424</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F27" s="3">
-        <v>2052681000</v>
+        <v>6012085111</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>71</v>
@@ -2941,39 +2618,42 @@
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>6424</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F28" s="3">
-        <v>8585521100</v>
+        <v>2024012000</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>6</v>
@@ -2981,113 +2661,122 @@
       <c r="L28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>6424</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F29" s="3">
-        <v>7133480000</v>
+        <v>2026061800</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>6424</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7208480000</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3032996000</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F31" s="3">
-        <v>5152452500</v>
+        <v>3108254321</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>6</v>
@@ -3095,75 +2784,81 @@
       <c r="L31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6424</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>456</v>
+        <v>317</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F32" s="3">
-        <v>3055003726</v>
+        <v>5105764400</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6424</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F33" s="3">
-        <v>6094900649</v>
+        <v>2484333300</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>6</v>
@@ -3171,37 +2866,40 @@
       <c r="L33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M33" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>6424</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>456</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="F34" s="3">
-        <v>2067273200</v>
+        <v>5206212211</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>6</v>
@@ -3209,37 +2907,40 @@
       <c r="L34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6424</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F35" s="3">
-        <v>2622602000</v>
+        <v>5106426000</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>6</v>
@@ -3247,37 +2948,40 @@
       <c r="L35" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>6424</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F36" s="3">
-        <v>5136058000</v>
+        <v>9518271012</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>6</v>
@@ -3285,37 +2989,40 @@
       <c r="L36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>6424</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F37" s="3">
-        <v>3035301925</v>
+        <v>8592571000</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>6</v>
@@ -3323,37 +3030,40 @@
       <c r="L37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6424</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="F38" s="3">
-        <v>6305703050</v>
+        <v>4126244141</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>6</v>
@@ -3361,75 +3071,81 @@
       <c r="L38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6424</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>451</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F39" s="3">
-        <v>9317661425</v>
+        <v>8124648600</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>6424</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F40" s="3">
-        <v>2064393830</v>
+        <v>8172722090</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>282</v>
+        <v>4</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>6</v>
@@ -3437,75 +3153,81 @@
       <c r="L40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M40" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>6424</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>256</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F41" s="3">
-        <v>6175361243</v>
+        <v>2025123000</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>6424</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="F42" s="3">
-        <v>9167338800</v>
+        <v>9147498500</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>6</v>
@@ -3513,75 +3235,81 @@
       <c r="L42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M42" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>6424</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="F43" s="3">
-        <v>4252568000</v>
+        <v>5712721000</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>6424</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F44" s="3">
-        <v>6123046073</v>
+        <v>2146483111</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>6</v>
@@ -3589,37 +3317,40 @@
       <c r="L44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M44" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>6424</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F45" s="3">
-        <v>6123046073</v>
+        <v>6153248226</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>6</v>
@@ -3627,37 +3358,40 @@
       <c r="L45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>6424</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F46" s="3">
-        <v>6109485100</v>
+        <v>4084043600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>6</v>
@@ -3665,37 +3399,40 @@
       <c r="L46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M46" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>6424</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>309</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F47" s="3">
-        <v>7635401200</v>
+        <v>5754242100</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>6</v>
@@ -3703,113 +3440,122 @@
       <c r="L47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>6424</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="F48" s="3">
-        <v>8584854000</v>
+        <v>2693874860</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>316</v>
+        <v>4</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L48" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>6424</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3169783456</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4014212800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M49" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>6424</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F50" s="4">
-        <v>5052770111</v>
+        <v>295</v>
+      </c>
+      <c r="F50" s="3">
+        <v>9103555903</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>6</v>
@@ -3817,37 +3563,40 @@
       <c r="L50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M50" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>6424</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="F51" s="3">
-        <v>5052770111</v>
+        <v>9103555903</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>6</v>
@@ -3855,1086 +3604,63 @@
       <c r="L51" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M51" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>6424</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F52" s="3">
-        <v>7134705300</v>
+        <v>4083493300</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2126922000</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6012085111</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F55" s="3">
-        <v>2024012000</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2026061800</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7208480000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3108254321</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5105764400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2484333300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5206212211</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F62" s="3">
-        <v>5106426000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L62" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F63" s="3">
-        <v>9518271012</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" s="3">
-        <v>8592571000</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4126244141</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8124648600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F67" s="3">
-        <v>8172722090</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2025123000</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F69" s="3">
-        <v>9147498500</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F70" s="3">
-        <v>5712721000</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2146483111</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F72" s="3">
-        <v>6153248226</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4084043600</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" s="3">
-        <v>5754242100</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F75" s="3">
-        <v>2693874860</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F76" s="3">
-        <v>3169783456</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F77" s="3">
-        <v>9103555903</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F78" s="3">
-        <v>9103555903</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>6424</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4083493300</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L79" t="s">
-        <v>0</v>
+      <c r="M52" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
-    <cfRule type="duplicateValues" dxfId="3" priority="41"/>
+  <conditionalFormatting sqref="E16:E25">
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E79">
-    <cfRule type="duplicateValues" dxfId="2" priority="40"/>
+  <conditionalFormatting sqref="E26:E52">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43:E52">
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E79">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  <conditionalFormatting sqref="E2:E52">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
